--- a/BackTest/2019-10-26 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-26 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-210223.9191999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-92206.81479793089</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>4.18</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,22 +523,21 @@
         <v>-92216.81479793089</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,24 +562,21 @@
         <v>-92205.81479793089</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>4.08</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -616,22 +601,21 @@
         <v>-104525.6242979309</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,22 +640,21 @@
         <v>-104514.6242979309</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -696,22 +679,21 @@
         <v>-1506.763697930888</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,20 +720,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,20 +757,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -816,22 +792,21 @@
         <v>-104496.6242979309</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,20 +833,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -898,20 +870,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -938,20 +907,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -978,20 +944,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1018,20 +981,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1058,20 +1018,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1098,20 +1055,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1138,20 +1092,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1178,20 +1129,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1218,20 +1166,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1258,20 +1203,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1298,20 +1240,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1338,20 +1277,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1378,20 +1314,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1418,20 +1351,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1458,20 +1388,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1498,20 +1425,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1538,20 +1462,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1578,20 +1499,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1618,20 +1536,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1656,22 +1571,19 @@
         <v>-345252.2691979308</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1696,22 +1608,19 @@
         <v>-323114.1661979308</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1736,22 +1645,19 @@
         <v>-323114.1661979308</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1776,22 +1682,21 @@
         <v>-323002.9307979308</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1816,22 +1721,21 @@
         <v>-644819.8932979308</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1856,22 +1760,21 @@
         <v>-624931.1286979308</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1896,22 +1799,21 @@
         <v>-644770.1713979308</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1936,22 +1838,21 @@
         <v>-413419.7924740227</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1976,22 +1877,21 @@
         <v>-445151.4783740227</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2016,22 +1916,21 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2058,20 +1957,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2098,20 +1994,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2138,20 +2031,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2178,20 +2068,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2218,20 +2105,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2258,20 +2142,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2298,20 +2179,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2338,20 +2216,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2378,20 +2253,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2418,20 +2290,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2458,20 +2327,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2498,20 +2364,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2538,20 +2401,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2576,22 +2436,17 @@
         <v>648070.1224000002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2616,22 +2471,15 @@
         <v>648070.1224000002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2656,22 +2504,15 @@
         <v>648070.1224000002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2696,22 +2537,15 @@
         <v>648070.1224000002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2736,22 +2570,15 @@
         <v>648081.1224000002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2776,22 +2603,15 @@
         <v>648081.1224000002</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2816,22 +2636,15 @@
         <v>756691.0743000002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2856,22 +2669,15 @@
         <v>1041270.0743</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2896,20 +2702,15 @@
         <v>1015834.716867896</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L63" t="n">
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2934,18 +2735,15 @@
         <v>813871.2942678961</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2970,18 +2768,15 @@
         <v>815872.2942678961</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3006,18 +2801,15 @@
         <v>772476.2942678961</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3042,18 +2834,15 @@
         <v>772466.2942678961</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3078,18 +2867,15 @@
         <v>772478.6599678961</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3116,16 +2902,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3152,16 +2935,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3188,16 +2968,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3224,16 +3001,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3260,16 +3034,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3294,18 +3065,15 @@
         <v>287510.4560678961</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3332,16 +3100,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3366,18 +3131,15 @@
         <v>287294.2117240047</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3404,16 +3166,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3440,16 +3199,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3476,16 +3232,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3512,16 +3265,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3548,16 +3298,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3584,16 +3331,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3620,16 +3364,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3654,18 +3395,15 @@
         <v>555127.6188240048</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3692,16 +3430,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3726,18 +3461,15 @@
         <v>571880.3339240048</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3762,18 +3494,15 @@
         <v>571890.3339240048</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3800,16 +3529,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3836,16 +3562,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3870,18 +3593,15 @@
         <v>779678.2248240048</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3906,18 +3626,15 @@
         <v>753351.7727240048</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3942,18 +3659,15 @@
         <v>1134791.338424005</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3980,16 +3694,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4014,18 +3725,15 @@
         <v>1092301.338424005</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4052,16 +3760,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4086,18 +3791,15 @@
         <v>9433.597824004944</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4124,16 +3826,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4160,16 +3859,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4196,16 +3892,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4232,16 +3925,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4268,16 +3958,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4304,16 +3991,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4340,16 +4024,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4376,16 +4057,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4412,16 +4090,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4446,18 +4121,15 @@
         <v>-284958.8080759951</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4484,16 +4156,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4520,16 +4189,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4556,16 +4222,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4592,16 +4255,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4628,16 +4288,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4662,18 +4319,15 @@
         <v>-293285.8134759951</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4700,16 +4354,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4736,16 +4387,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4772,16 +4420,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4808,16 +4453,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4844,18 +4486,15 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-26 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-210223.9191999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-92206.81479793089</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>4.18</v>
@@ -523,7 +523,7 @@
         <v>-92216.81479793089</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>4.35</v>
@@ -562,7 +562,7 @@
         <v>-92205.81479793089</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>4.08</v>
@@ -601,11 +601,9 @@
         <v>-104525.6242979309</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -640,11 +638,9 @@
         <v>-104514.6242979309</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -679,11 +675,9 @@
         <v>-1506.763697930888</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -792,11 +786,9 @@
         <v>-104496.6242979309</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -1571,7 +1563,7 @@
         <v>-345252.2691979308</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1608,7 +1600,7 @@
         <v>-323114.1661979308</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1645,7 +1637,7 @@
         <v>-323114.1661979308</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1682,11 +1674,9 @@
         <v>-323002.9307979308</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1721,11 +1711,9 @@
         <v>-644819.8932979308</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1760,11 +1748,9 @@
         <v>-624931.1286979308</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1799,11 +1785,9 @@
         <v>-644770.1713979308</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1838,11 +1822,9 @@
         <v>-413419.7924740227</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1877,11 +1859,9 @@
         <v>-445151.4783740227</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1916,11 +1896,9 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2436,16 +2414,18 @@
         <v>648070.1224000002</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
       <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2471,11 +2451,15 @@
         <v>648070.1224000002</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2504,11 +2488,15 @@
         <v>648070.1224000002</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2537,11 +2525,15 @@
         <v>648070.1224000002</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2570,11 +2562,15 @@
         <v>648081.1224000002</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2603,11 +2599,15 @@
         <v>648081.1224000002</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2636,11 +2636,15 @@
         <v>756691.0743000002</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2669,11 +2673,15 @@
         <v>1041270.0743</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2702,11 +2710,15 @@
         <v>1015834.716867896</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2735,11 +2747,15 @@
         <v>813871.2942678961</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2768,11 +2784,15 @@
         <v>815872.2942678961</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2801,11 +2821,15 @@
         <v>772476.2942678961</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2834,14 +2858,16 @@
         <v>772466.2942678961</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2867,7 +2893,7 @@
         <v>772478.6599678961</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2900,7 +2926,7 @@
         <v>711200.096267896</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2933,7 +2959,7 @@
         <v>711200.096267896</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2966,7 +2992,7 @@
         <v>669707.461867896</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2999,7 +3025,7 @@
         <v>669717.461867896</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3032,7 +3058,7 @@
         <v>589082.1956678961</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3065,7 +3091,7 @@
         <v>287510.4560678961</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3098,7 +3124,7 @@
         <v>287520.4560678961</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3131,7 +3157,7 @@
         <v>287294.2117240047</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3164,7 +3190,7 @@
         <v>268708.9517240047</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3197,7 +3223,7 @@
         <v>468275.4290240047</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3230,7 +3256,7 @@
         <v>467239.0170240047</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3263,7 +3289,7 @@
         <v>467239.0170240047</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3296,7 +3322,7 @@
         <v>467239.0170240047</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3329,7 +3355,7 @@
         <v>604439.0170240047</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3362,7 +3388,7 @@
         <v>604457.1988240047</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3395,7 +3421,7 @@
         <v>555127.6188240048</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3428,7 +3454,7 @@
         <v>571880.3339240048</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3461,7 +3487,7 @@
         <v>571880.3339240048</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3494,7 +3520,7 @@
         <v>571890.3339240048</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3527,7 +3553,7 @@
         <v>741021.3339240048</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3560,7 +3586,7 @@
         <v>750391.8987240049</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3593,7 +3619,7 @@
         <v>779678.2248240048</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3626,7 +3652,7 @@
         <v>753351.7727240048</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3659,7 +3685,7 @@
         <v>1134791.338424005</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3725,7 +3751,7 @@
         <v>1092301.338424005</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3791,7 +3817,7 @@
         <v>9433.597824004944</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4055,7 +4081,7 @@
         <v>-158981.8931759951</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4088,7 +4114,7 @@
         <v>-284958.8080759951</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4121,7 +4147,7 @@
         <v>-284958.8080759951</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4154,7 +4180,7 @@
         <v>-291941.3080759951</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4220,7 +4246,7 @@
         <v>-153303.3080759951</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4286,7 +4312,7 @@
         <v>-193285.1262759951</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4319,7 +4345,7 @@
         <v>-293285.8134759951</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4352,7 +4378,7 @@
         <v>-293274.8134759951</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4495,6 +4521,6 @@
       <c r="M117" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-26 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -523,11 +523,9 @@
         <v>-92216.81479793089</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.35</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -562,11 +560,9 @@
         <v>-92205.81479793089</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -601,7 +597,7 @@
         <v>-104525.6242979309</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -638,7 +634,7 @@
         <v>-104514.6242979309</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -712,7 +708,7 @@
         <v>-3506.763697930888</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -749,7 +745,7 @@
         <v>-104514.6242979309</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -823,7 +819,7 @@
         <v>-106483.6828979309</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -860,7 +856,7 @@
         <v>-106483.6828979309</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1415,9 +1411,11 @@
         <v>-519692.8422979309</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.2</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1452,9 +1450,11 @@
         <v>-527214.8760979308</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.22</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1489,9 +1489,11 @@
         <v>-371474.5723979308</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.21</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1526,9 +1528,11 @@
         <v>-371474.5723979308</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.24</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1563,9 +1567,11 @@
         <v>-345252.2691979308</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.24</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1600,9 +1606,11 @@
         <v>-323114.1661979308</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.26</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1711,18 +1719,16 @@
         <v>-644819.8932979308</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1748,15 +1754,11 @@
         <v>-624931.1286979308</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1785,15 +1787,11 @@
         <v>-644770.1713979308</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1822,15 +1820,11 @@
         <v>-413419.7924740227</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1859,15 +1853,11 @@
         <v>-445151.4783740227</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1896,15 +1886,11 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1933,15 +1919,11 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1970,15 +1952,11 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2007,15 +1985,11 @@
         <v>-388813.6608740227</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2044,15 +2018,11 @@
         <v>-388813.6608740227</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2081,15 +2051,11 @@
         <v>-274375.3850740227</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2122,11 +2088,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2159,11 +2121,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2196,11 +2154,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2187,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2270,11 +2220,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2307,11 +2253,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2344,11 +2286,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2319,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2418,11 +2352,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2455,11 +2385,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2492,11 +2418,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2529,11 +2451,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2484,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2603,11 +2517,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2640,11 +2550,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2677,11 +2583,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2714,11 +2616,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2751,11 +2649,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +2682,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2825,11 +2715,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2858,16 +2744,14 @@
         <v>772466.2942678961</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
       <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2893,7 +2777,7 @@
         <v>772478.6599678961</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2926,7 +2810,7 @@
         <v>711200.096267896</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2959,7 +2843,7 @@
         <v>711200.096267896</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2992,7 +2876,7 @@
         <v>669707.461867896</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3025,7 +2909,7 @@
         <v>669717.461867896</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3058,7 +2942,7 @@
         <v>589082.1956678961</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3091,7 +2975,7 @@
         <v>287510.4560678961</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3124,7 +3008,7 @@
         <v>287520.4560678961</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3157,7 +3041,7 @@
         <v>287294.2117240047</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3190,7 +3074,7 @@
         <v>268708.9517240047</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3223,7 +3107,7 @@
         <v>468275.4290240047</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3256,7 +3140,7 @@
         <v>467239.0170240047</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3289,7 +3173,7 @@
         <v>467239.0170240047</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3322,7 +3206,7 @@
         <v>467239.0170240047</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3355,7 +3239,7 @@
         <v>604439.0170240047</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3388,7 +3272,7 @@
         <v>604457.1988240047</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3421,7 +3305,7 @@
         <v>555127.6188240048</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3454,7 +3338,7 @@
         <v>571880.3339240048</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3487,7 +3371,7 @@
         <v>571880.3339240048</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3520,7 +3404,7 @@
         <v>571890.3339240048</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3553,7 +3437,7 @@
         <v>741021.3339240048</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3586,7 +3470,7 @@
         <v>750391.8987240049</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3619,7 +3503,7 @@
         <v>779678.2248240048</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3652,7 +3536,7 @@
         <v>753351.7727240048</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3685,7 +3569,7 @@
         <v>1134791.338424005</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4081,7 +3965,7 @@
         <v>-158981.8931759951</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4114,7 +3998,7 @@
         <v>-284958.8080759951</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4147,7 +4031,7 @@
         <v>-284958.8080759951</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4180,7 +4064,7 @@
         <v>-291941.3080759951</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4246,7 +4130,7 @@
         <v>-153303.3080759951</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4312,7 +4196,7 @@
         <v>-193285.1262759951</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4345,7 +4229,7 @@
         <v>-293285.8134759951</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4378,7 +4262,7 @@
         <v>-293274.8134759951</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4521,6 +4405,6 @@
       <c r="M117" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-26 BackTest BZNT.xlsx
@@ -523,9 +523,11 @@
         <v>-92216.81479793089</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -560,9 +562,11 @@
         <v>-92205.81479793089</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.08</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -597,7 +601,7 @@
         <v>-104525.6242979309</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -634,7 +638,7 @@
         <v>-104514.6242979309</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -708,7 +712,7 @@
         <v>-3506.763697930888</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -745,7 +749,7 @@
         <v>-104514.6242979309</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -819,7 +823,7 @@
         <v>-106483.6828979309</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -856,7 +860,7 @@
         <v>-106483.6828979309</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1411,11 +1415,9 @@
         <v>-519692.8422979309</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1450,11 +1452,9 @@
         <v>-527214.8760979308</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1489,11 +1489,9 @@
         <v>-371474.5723979308</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1528,11 +1526,9 @@
         <v>-371474.5723979308</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1567,11 +1563,9 @@
         <v>-345252.2691979308</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1606,11 +1600,9 @@
         <v>-323114.1661979308</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1719,16 +1711,18 @@
         <v>-644819.8932979308</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
       <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1754,11 +1748,15 @@
         <v>-624931.1286979308</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +1785,15 @@
         <v>-644770.1713979308</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1820,11 +1822,17 @@
         <v>-413419.7924740227</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.26</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1853,11 +1861,17 @@
         <v>-445151.4783740227</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1886,11 +1900,15 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1919,11 +1937,15 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +1974,15 @@
         <v>-388931.8426740227</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +2011,15 @@
         <v>-388813.6608740227</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2048,15 @@
         <v>-388813.6608740227</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2085,15 @@
         <v>-274375.3850740227</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2084,11 +2122,17 @@
         <v>-261125.7055740227</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.37</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2117,11 +2161,17 @@
         <v>-261125.7055740227</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.38</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2154,7 +2204,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2237,17 @@
         <v>536561.1777242132</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.38</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2220,7 +2280,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2317,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2286,7 +2354,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2319,7 +2391,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2352,7 +2428,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2385,7 +2465,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2502,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2451,7 +2539,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2484,7 +2576,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2517,7 +2613,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2550,7 +2650,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2579,14 +2683,16 @@
         <v>1041270.0743</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2612,7 +2718,7 @@
         <v>1015834.716867896</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2645,7 +2751,7 @@
         <v>813871.2942678961</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2678,7 +2784,7 @@
         <v>815872.2942678961</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2711,7 +2817,7 @@
         <v>772476.2942678961</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2744,7 +2850,7 @@
         <v>772466.2942678961</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3602,7 +3708,7 @@
         <v>1134801.338424005</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3635,7 +3741,7 @@
         <v>1092301.338424005</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3701,7 +3807,7 @@
         <v>9433.597824004944</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-26 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>250</v>
       </c>
       <c r="G2" t="n">
-        <v>-210223.9191999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>118017.104402069</v>
       </c>
       <c r="G3" t="n">
-        <v>-92206.81479793089</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>4.18</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>-92216.81479793089</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>4.35</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>-92205.81479793089</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>4.08</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,22 +581,19 @@
         <v>12319.8095</v>
       </c>
       <c r="G6" t="n">
-        <v>-104525.6242979309</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,22 +615,19 @@
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>-104514.6242979309</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,22 +649,19 @@
         <v>103007.8606</v>
       </c>
       <c r="G8" t="n">
-        <v>-1506.763697930888</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -709,22 +683,19 @@
         <v>2000</v>
       </c>
       <c r="G9" t="n">
-        <v>-3506.763697930888</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,22 +717,19 @@
         <v>101007.8606</v>
       </c>
       <c r="G10" t="n">
-        <v>-104514.6242979309</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,22 +751,19 @@
         <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>-104496.6242979309</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -820,22 +785,19 @@
         <v>1987.0586</v>
       </c>
       <c r="G12" t="n">
-        <v>-106483.6828979309</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -857,22 +819,19 @@
         <v>4384.0465</v>
       </c>
       <c r="G13" t="n">
-        <v>-106483.6828979309</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -894,22 +853,19 @@
         <v>10471.5617</v>
       </c>
       <c r="G14" t="n">
-        <v>-116955.2445979309</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -931,22 +887,19 @@
         <v>9610</v>
       </c>
       <c r="G15" t="n">
-        <v>-116955.2445979309</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -968,22 +921,19 @@
         <v>10390</v>
       </c>
       <c r="G16" t="n">
-        <v>-116955.2445979309</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1005,22 +955,19 @@
         <v>10496.1448</v>
       </c>
       <c r="G17" t="n">
-        <v>-127451.3893979309</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1042,22 +989,19 @@
         <v>21041.3348</v>
       </c>
       <c r="G18" t="n">
-        <v>-148492.7241979309</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1079,22 +1023,19 @@
         <v>20000</v>
       </c>
       <c r="G19" t="n">
-        <v>-148492.7241979309</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1116,22 +1057,19 @@
         <v>34060.5046</v>
       </c>
       <c r="G20" t="n">
-        <v>-182553.2287979309</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1153,22 +1091,19 @@
         <v>22967.0705</v>
       </c>
       <c r="G21" t="n">
-        <v>-205520.2992979309</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1190,22 +1125,19 @@
         <v>3130.6014</v>
       </c>
       <c r="G22" t="n">
-        <v>-208650.9006979309</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1227,22 +1159,19 @@
         <v>28440.5497</v>
       </c>
       <c r="G23" t="n">
-        <v>-208650.9006979309</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1264,22 +1193,19 @@
         <v>6346</v>
       </c>
       <c r="G24" t="n">
-        <v>-202304.9006979309</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1301,22 +1227,19 @@
         <v>184931.9416</v>
       </c>
       <c r="G25" t="n">
-        <v>-387236.8422979309</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1338,22 +1261,19 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>-387226.8422979309</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1375,22 +1295,19 @@
         <v>132476</v>
       </c>
       <c r="G27" t="n">
-        <v>-519702.8422979309</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,22 +1329,19 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>-519692.8422979309</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1449,22 +1363,19 @@
         <v>7522.0338</v>
       </c>
       <c r="G29" t="n">
-        <v>-527214.8760979308</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,22 +1397,19 @@
         <v>155740.3037</v>
       </c>
       <c r="G30" t="n">
-        <v>-371474.5723979308</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1523,22 +1431,19 @@
         <v>104052.5068</v>
       </c>
       <c r="G31" t="n">
-        <v>-371474.5723979308</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1560,22 +1465,19 @@
         <v>26222.3032</v>
       </c>
       <c r="G32" t="n">
-        <v>-345252.2691979308</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1597,22 +1499,19 @@
         <v>22138.103</v>
       </c>
       <c r="G33" t="n">
-        <v>-323114.1661979308</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1634,22 +1533,19 @@
         <v>36820.5622</v>
       </c>
       <c r="G34" t="n">
-        <v>-323114.1661979308</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1671,22 +1567,19 @@
         <v>111.2354</v>
       </c>
       <c r="G35" t="n">
-        <v>-323002.9307979308</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1708,22 +1601,19 @@
         <v>321816.9625</v>
       </c>
       <c r="G36" t="n">
-        <v>-644819.8932979308</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1745,22 +1635,19 @@
         <v>19888.7646</v>
       </c>
       <c r="G37" t="n">
-        <v>-624931.1286979308</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1782,22 +1669,19 @@
         <v>19839.0427</v>
       </c>
       <c r="G38" t="n">
-        <v>-644770.1713979308</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1819,24 +1703,19 @@
         <v>231350.3789239081</v>
       </c>
       <c r="G39" t="n">
-        <v>-413419.7924740227</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1858,24 +1737,19 @@
         <v>31731.6859</v>
       </c>
       <c r="G40" t="n">
-        <v>-445151.4783740227</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1897,22 +1771,19 @@
         <v>56219.6357</v>
       </c>
       <c r="G41" t="n">
-        <v>-388931.8426740227</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1934,22 +1805,19 @@
         <v>57736.7205</v>
       </c>
       <c r="G42" t="n">
-        <v>-388931.8426740227</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1971,22 +1839,19 @@
         <v>42252.1684</v>
       </c>
       <c r="G43" t="n">
-        <v>-388931.8426740227</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2008,22 +1873,19 @@
         <v>118.1818</v>
       </c>
       <c r="G44" t="n">
-        <v>-388813.6608740227</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2045,22 +1907,19 @@
         <v>13035.6091</v>
       </c>
       <c r="G45" t="n">
-        <v>-388813.6608740227</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2082,22 +1941,19 @@
         <v>114438.2758</v>
       </c>
       <c r="G46" t="n">
-        <v>-274375.3850740227</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2119,24 +1975,19 @@
         <v>13249.6795</v>
       </c>
       <c r="G47" t="n">
-        <v>-261125.7055740227</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2158,24 +2009,19 @@
         <v>77943.83560000001</v>
       </c>
       <c r="G48" t="n">
-        <v>-261125.7055740227</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2197,22 +2043,19 @@
         <v>30000</v>
       </c>
       <c r="G49" t="n">
-        <v>-261125.7055740227</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2234,24 +2077,19 @@
         <v>797686.8832982359</v>
       </c>
       <c r="G50" t="n">
-        <v>536561.1777242132</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2273,22 +2111,19 @@
         <v>97496.97107578701</v>
       </c>
       <c r="G51" t="n">
-        <v>634058.1488000002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2310,22 +2145,19 @@
         <v>5871.904</v>
       </c>
       <c r="G52" t="n">
-        <v>634058.1488000002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2347,22 +2179,19 @@
         <v>8058.75</v>
       </c>
       <c r="G53" t="n">
-        <v>642116.8988000002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2384,22 +2213,19 @@
         <v>5870</v>
       </c>
       <c r="G54" t="n">
-        <v>647986.8988000002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2421,22 +2247,19 @@
         <v>83.2236</v>
       </c>
       <c r="G55" t="n">
-        <v>648070.1224000002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2458,22 +2281,19 @@
         <v>56859.2105</v>
       </c>
       <c r="G56" t="n">
-        <v>648070.1224000002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2495,22 +2315,19 @@
         <v>27529.1666</v>
       </c>
       <c r="G57" t="n">
-        <v>648070.1224000002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2532,22 +2349,19 @@
         <v>17528.3993</v>
       </c>
       <c r="G58" t="n">
-        <v>648070.1224000002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2569,22 +2383,19 @@
         <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>648081.1224000002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2606,22 +2417,19 @@
         <v>32751.0917</v>
       </c>
       <c r="G60" t="n">
-        <v>648081.1224000002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2643,22 +2451,19 @@
         <v>108609.9519</v>
       </c>
       <c r="G61" t="n">
-        <v>756691.0743000002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2680,20 +2485,19 @@
         <v>284579</v>
       </c>
       <c r="G62" t="n">
-        <v>1041270.0743</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
       </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2715,18 +2519,17 @@
         <v>25435.35743210412</v>
       </c>
       <c r="G63" t="n">
-        <v>1015834.716867896</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2748,18 +2551,15 @@
         <v>201963.4226</v>
       </c>
       <c r="G64" t="n">
-        <v>813871.2942678961</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2781,18 +2581,15 @@
         <v>2001</v>
       </c>
       <c r="G65" t="n">
-        <v>815872.2942678961</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2814,18 +2611,15 @@
         <v>43396</v>
       </c>
       <c r="G66" t="n">
-        <v>772476.2942678961</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2847,18 +2641,15 @@
         <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>772466.2942678961</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2880,18 +2671,15 @@
         <v>12.3657</v>
       </c>
       <c r="G68" t="n">
-        <v>772478.6599678961</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2913,18 +2701,15 @@
         <v>61278.5637</v>
       </c>
       <c r="G69" t="n">
-        <v>711200.096267896</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2946,18 +2731,15 @@
         <v>26500</v>
       </c>
       <c r="G70" t="n">
-        <v>711200.096267896</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2979,18 +2761,15 @@
         <v>41492.6344</v>
       </c>
       <c r="G71" t="n">
-        <v>669707.461867896</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3012,18 +2791,15 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>669717.461867896</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3045,18 +2821,15 @@
         <v>80635.2662</v>
       </c>
       <c r="G73" t="n">
-        <v>589082.1956678961</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3078,18 +2851,15 @@
         <v>301571.7396</v>
       </c>
       <c r="G74" t="n">
-        <v>287510.4560678961</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3111,18 +2881,15 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>287520.4560678961</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3144,18 +2911,15 @@
         <v>226.2443438914027</v>
       </c>
       <c r="G76" t="n">
-        <v>287294.2117240047</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3177,18 +2941,15 @@
         <v>18585.26</v>
       </c>
       <c r="G77" t="n">
-        <v>268708.9517240047</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3210,18 +2971,15 @@
         <v>199566.4773</v>
       </c>
       <c r="G78" t="n">
-        <v>468275.4290240047</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3243,18 +3001,15 @@
         <v>1036.412</v>
       </c>
       <c r="G79" t="n">
-        <v>467239.0170240047</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3276,18 +3031,15 @@
         <v>3838.5105</v>
       </c>
       <c r="G80" t="n">
-        <v>467239.0170240047</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3309,18 +3061,15 @@
         <v>30166.3305</v>
       </c>
       <c r="G81" t="n">
-        <v>467239.0170240047</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3342,18 +3091,15 @@
         <v>137200</v>
       </c>
       <c r="G82" t="n">
-        <v>604439.0170240047</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3375,18 +3121,15 @@
         <v>18.1818</v>
       </c>
       <c r="G83" t="n">
-        <v>604457.1988240047</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3151,15 @@
         <v>49329.58</v>
       </c>
       <c r="G84" t="n">
-        <v>555127.6188240048</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3441,18 +3181,15 @@
         <v>16752.7151</v>
       </c>
       <c r="G85" t="n">
-        <v>571880.3339240048</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3474,18 +3211,15 @@
         <v>14178.4631</v>
       </c>
       <c r="G86" t="n">
-        <v>571880.3339240048</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3507,18 +3241,15 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>571890.3339240048</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3540,18 +3271,15 @@
         <v>169131</v>
       </c>
       <c r="G88" t="n">
-        <v>741021.3339240048</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3573,18 +3301,15 @@
         <v>9370.5648</v>
       </c>
       <c r="G89" t="n">
-        <v>750391.8987240049</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3606,18 +3331,15 @@
         <v>29286.3261</v>
       </c>
       <c r="G90" t="n">
-        <v>779678.2248240048</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3639,18 +3361,15 @@
         <v>26326.4521</v>
       </c>
       <c r="G91" t="n">
-        <v>753351.7727240048</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3672,18 +3391,15 @@
         <v>381439.5657</v>
       </c>
       <c r="G92" t="n">
-        <v>1134791.338424005</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3705,18 +3421,15 @@
         <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>1134801.338424005</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3738,18 +3451,15 @@
         <v>42500</v>
       </c>
       <c r="G94" t="n">
-        <v>1092301.338424005</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3771,18 +3481,15 @@
         <v>18</v>
       </c>
       <c r="G95" t="n">
-        <v>1092319.338424005</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3804,18 +3511,15 @@
         <v>1082885.7406</v>
       </c>
       <c r="G96" t="n">
-        <v>9433.597824004944</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3837,18 +3541,15 @@
         <v>154321.1538</v>
       </c>
       <c r="G97" t="n">
-        <v>-144887.5559759951</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3870,18 +3571,15 @@
         <v>23094.3372</v>
       </c>
       <c r="G98" t="n">
-        <v>-167981.8931759951</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3903,18 +3601,15 @@
         <v>9413.0947</v>
       </c>
       <c r="G99" t="n">
-        <v>-167981.8931759951</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3936,18 +3631,15 @@
         <v>42510</v>
       </c>
       <c r="G100" t="n">
-        <v>-167981.8931759951</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3969,18 +3661,15 @@
         <v>4000</v>
       </c>
       <c r="G101" t="n">
-        <v>-163981.8931759951</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4002,18 +3691,15 @@
         <v>1000</v>
       </c>
       <c r="G102" t="n">
-        <v>-162981.8931759951</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4035,18 +3721,15 @@
         <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>-161981.8931759951</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4068,18 +3751,15 @@
         <v>3000</v>
       </c>
       <c r="G104" t="n">
-        <v>-158981.8931759951</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4101,18 +3781,15 @@
         <v>125976.9149</v>
       </c>
       <c r="G105" t="n">
-        <v>-284958.8080759951</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4134,18 +3811,15 @@
         <v>1565</v>
       </c>
       <c r="G106" t="n">
-        <v>-284958.8080759951</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4167,18 +3841,15 @@
         <v>6982.5</v>
       </c>
       <c r="G107" t="n">
-        <v>-291941.3080759951</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4200,18 +3871,15 @@
         <v>138638</v>
       </c>
       <c r="G108" t="n">
-        <v>-153303.3080759951</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4233,18 +3901,15 @@
         <v>66000</v>
       </c>
       <c r="G109" t="n">
-        <v>-153303.3080759951</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4266,18 +3931,15 @@
         <v>40000</v>
       </c>
       <c r="G110" t="n">
-        <v>-193303.3080759951</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4299,18 +3961,15 @@
         <v>18.1818</v>
       </c>
       <c r="G111" t="n">
-        <v>-193285.1262759951</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4332,18 +3991,15 @@
         <v>100000.6872</v>
       </c>
       <c r="G112" t="n">
-        <v>-293285.8134759951</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4365,18 +4021,15 @@
         <v>11</v>
       </c>
       <c r="G113" t="n">
-        <v>-293274.8134759951</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4398,18 +4051,15 @@
         <v>380000</v>
       </c>
       <c r="G114" t="n">
-        <v>-673274.8134759951</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4431,18 +4081,15 @@
         <v>231.1059907834101</v>
       </c>
       <c r="G115" t="n">
-        <v>-673043.7074852117</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4464,18 +4111,15 @@
         <v>68402</v>
       </c>
       <c r="G116" t="n">
-        <v>-741445.7074852117</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4497,18 +4141,15 @@
         <v>232.9466357308585</v>
       </c>
       <c r="G117" t="n">
-        <v>-741212.7608494808</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
